--- a/phase3/generated_spreadsheet.xlsx
+++ b/phase3/generated_spreadsheet.xlsx
@@ -12207,7 +12207,7 @@
         <v>1453120.76918362</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -12226,10 +12226,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3811.98212113281</v>
+        <v>2087.908596550831</v>
       </c>
       <c r="B4">
-        <v>1905.991060566405</v>
+        <v>1043.954298275415</v>
       </c>
     </row>
   </sheetData>

--- a/phase3/generated_spreadsheet.xlsx
+++ b/phase3/generated_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Cycle Inventory</t>
+  </si>
+  <si>
+    <t>Number of Orders Per Year:</t>
+  </si>
+  <si>
+    <t>Replenishment time:</t>
+  </si>
+  <si>
+    <t>Average Flow time:</t>
   </si>
 </sst>
 </file>
@@ -12182,7 +12191,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12204,13 +12213,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1453120.76918362</v>
+        <v>271252.2790317628</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -12226,10 +12235,36 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2087.908596550831</v>
+        <v>6378.702207719405</v>
       </c>
       <c r="B4">
-        <v>1043.954298275415</v>
+        <v>3189.351103859703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>42.52468138479604</v>
+      </c>
+      <c r="B6">
+        <v>8.583250670291898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4.291625335145949</v>
       </c>
     </row>
   </sheetData>
